--- a/04-abril/6_ORAINDE/ORAINDE.xlsx
+++ b/04-abril/6_ORAINDE/ORAINDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\6_ORAINDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\6_ORAINDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB069F-CCAD-4506-B4F0-F859729B3075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC03E5DF-4289-4EB6-820C-30C86823E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25650" yWindow="1125" windowWidth="24390" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>PAMI</t>
   </si>
   <si>
-    <t>MARZO 2025</t>
+    <t>ABRIL 2025</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,32 +590,32 @@
         <v>10</v>
       </c>
       <c r="B5" s="6">
-        <v>470987.08</v>
+        <v>495698.92</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>79420.72</v>
+        <v>81640.759999999995</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
         <f>+B5+C5</f>
-        <v>470987.08</v>
+        <v>495698.92</v>
       </c>
       <c r="G5" s="6">
         <f>+D5+E5</f>
-        <v>79420.72</v>
+        <v>81640.759999999995</v>
       </c>
       <c r="H5" s="11">
         <f>+B5+C5+D5+E5</f>
-        <v>550407.80000000005</v>
+        <v>577339.67999999993</v>
       </c>
       <c r="I5" s="6">
         <f>+H5*2</f>
-        <v>1100815.6000000001</v>
+        <v>1154679.3599999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
@@ -623,39 +623,39 @@
         <v>11</v>
       </c>
       <c r="B6" s="6">
-        <v>466323.85</v>
+        <v>490791.05</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>78634.080000000002</v>
+        <v>80832.259999999995</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
       </c>
       <c r="F6" s="6">
         <f>+B6+C6</f>
-        <v>466323.85</v>
+        <v>490791.05</v>
       </c>
       <c r="G6" s="6">
         <f>+D6+E6</f>
-        <v>78634.080000000002</v>
+        <v>80832.259999999995</v>
       </c>
       <c r="H6" s="11">
         <f>+B6+C6+D6+E6</f>
-        <v>544957.92999999993</v>
+        <v>571623.30999999994</v>
       </c>
       <c r="I6" s="6">
         <f>+H6*2</f>
-        <v>1089915.8599999999</v>
+        <v>1143246.6199999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="2"/>
       <c r="B7" s="7">
         <f>SUM(B5:B6)</f>
-        <v>937310.92999999993</v>
+        <v>986489.97</v>
       </c>
       <c r="C7" s="7">
         <f>SUM(C5:C6)</f>
@@ -663,7 +663,7 @@
       </c>
       <c r="D7" s="7">
         <f>SUM(D5:D6)</f>
-        <v>158054.79999999999</v>
+        <v>162473.01999999999</v>
       </c>
       <c r="E7" s="7">
         <f>SUM(E5:E6)</f>
@@ -671,19 +671,19 @@
       </c>
       <c r="F7" s="7">
         <f>SUM(F5:F6)</f>
-        <v>937310.92999999993</v>
+        <v>986489.97</v>
       </c>
       <c r="G7" s="6">
         <f>+D7+E7</f>
-        <v>158054.79999999999</v>
+        <v>162473.01999999999</v>
       </c>
       <c r="H7" s="12">
         <f>SUM(H5:H6)</f>
-        <v>1095365.73</v>
+        <v>1148962.9899999998</v>
       </c>
       <c r="I7" s="7">
         <f>SUM(I5:I6)</f>
-        <v>2190731.46</v>
+        <v>2297925.9799999995</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
